--- a/Dimensions Hierarchy Format.xlsx
+++ b/Dimensions Hierarchy Format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed375f2e70fde2d5/Documents/Grad School/2QB - INFO 4240 - Data Warehousing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Coffee Merchant DM Solution\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6FC2AFF-805F-47A1-A759-DFCF7B3B0FB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB0785-4F1C-4763-838E-BC8D833AC336}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8760" tabRatio="754" firstSheet="3" activeTab="3" xr2:uid="{7E5CC1BA-AD1C-475D-B692-A19102C87A25}"/>
   </bookViews>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,6 +843,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -894,9 +897,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,16 +1213,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0955952-190B-4F77-B8BE-D5F1F3C945DE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{82FC3406-708D-5797-8B97-658B03A9E7D5}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.88671875" customWidth="1"/>
+    <col min="1" max="7" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1230,12 +1230,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1252,104 +1252,104 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="40" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="40" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="40" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A11" s="41" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -1366,16 +1366,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B443E386-6A71-4C6C-88A6-C64F463904FB}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{2EFA4857-AF52-554F-B310-78C3CEA58AE8}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="18.88671875" customWidth="1"/>
+    <col min="1" max="7" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1383,12 +1383,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -1403,8 +1403,8 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1416,10 +1416,10 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1431,10 +1431,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1446,10 +1446,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="40" t="s">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1461,10 +1461,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="40" t="s">
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1476,10 +1476,10 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="40" t="s">
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1491,10 +1491,10 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -1506,10 +1506,10 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="40" t="s">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1521,10 +1521,10 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="40" t="s">
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="8"/>
@@ -1532,10 +1532,10 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="40" t="s">
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="8"/>
@@ -1543,10 +1543,10 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A15" s="41" t="s">
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="9"/>
@@ -1554,27 +1554,27 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.6">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1588,18 +1588,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88558B26-B4F8-43CC-9A8C-114474CB7384}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{900805EC-B4AB-56FB-84E3-02ADC82822E7}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="7" width="18.88671875" customWidth="1"/>
+    <col min="3" max="7" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1607,12 +1607,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>50</v>
       </c>
@@ -1631,8 +1631,8 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1648,10 +1648,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1667,10 +1667,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="40" t="s">
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1686,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="40" t="s">
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1705,10 +1705,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="40" t="s">
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>68</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1722,10 +1722,10 @@
         <v>37</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="40" t="s">
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="8"/>
@@ -1737,10 +1737,10 @@
         <v>39</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="8"/>
@@ -1752,10 +1752,10 @@
         <v>75</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" thickBot="1">
-      <c r="A12" s="41" t="s">
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="9"/>
@@ -1767,27 +1767,27 @@
         <v>44</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.6">
+      <c r="G12" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1801,18 +1801,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF93BE93-3163-4CF5-A83A-3301EE8B220A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{50F5A55E-438E-5A89-806B-55EDC4EF4D04}">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="6" width="16.6640625" customWidth="1"/>
+    <col min="4" max="6" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1">
+    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1821,20 +1821,20 @@
       <c r="F1" s="19"/>
       <c r="G1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" thickBot="1">
+    <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1843,18 +1843,18 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16.149999999999999" thickBot="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="17" t="s">
         <v>50</v>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="16" t="s">
         <v>8</v>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="15" t="s">
         <v>84</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="15" t="s">
         <v>87</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="15" t="s">
         <v>91</v>
@@ -1947,7 +1947,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1958,7 +1958,7 @@
       <c r="F10" s="15"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1969,7 +1969,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1980,7 +1980,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" thickBot="1">
+    <row r="13" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1991,7 +1991,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" thickBot="1">
+    <row r="14" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -2000,47 +2000,47 @@
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1">
+    <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" thickBot="1">
+    <row r="18" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
